--- a/日报与周报-叶家俊2018.01.26.xlsx
+++ b/日报与周报-叶家俊2018.01.26.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>时间</t>
   </si>
@@ -73,6 +73,38 @@
   </si>
   <si>
     <t>改进前端代码，定时器请求优化。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写前端代码，实现device list展示。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加请求数据按钮，停止请求数据按钮，细节优化，完成React版本单点距离展示前端代码。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加数据处理逻辑；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写button组件，input组件，优化整体代码。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位系统算法测试与修正，寻找提高精度的方法；学习android app蓝牙操作。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周完成了react版本的距离显示网页，以此为基础可以继续开发更为全面的楼层定位，但具体楼层定位涉及到的地图、Router位置、楼层、是否更改为多页面的可选择性显示等都需要讨论得出具体要设计的数据传输框架和展示的方式；另一方面是算法的要求，在前面未有决定的情况下目前已经同步开始对三边定位算法的调试。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划调试三边定位算法，目的是在蓝牙获距不准确的情况下，仍能得出模糊位置结果，在提高得出结果概率基础上提高精度。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位系统优化，修改hostname加载逻辑；更新代码。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -532,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -590,11 +622,21 @@
       <c r="D2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="E2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="9"/>
@@ -633,9 +675,15 @@
       <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
